--- a/納豆仕様書10.26.xlsx
+++ b/納豆仕様書10.26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\田中 湧輝\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149C9343-6DA4-4B0E-BAAE-E91C0DB6092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF6DAE9-8E06-4E98-A1F6-8A1FA1C7E83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{C4C6002F-9450-4BE2-A7A1-30430E39AEEE}"/>
   </bookViews>
@@ -1334,9 +1334,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1358,341 +1355,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1820,6 +1490,336 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -3979,16 +3979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>756061</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95526</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>287975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>223789</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>372987</xdr:rowOff>
+      <xdr:colOff>670103</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>253245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4011,8 +4011,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="997503">
-          <a:off x="2584861" y="5683526"/>
-          <a:ext cx="382128" cy="846421"/>
+          <a:off x="3031175" y="6648727"/>
+          <a:ext cx="382128" cy="843518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6447,15 +6447,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:colOff>566057</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>195943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>111760</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6470,8 +6470,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2844800" y="5384800"/>
-          <a:ext cx="10160" cy="436880"/>
+          <a:off x="3309257" y="5192486"/>
+          <a:ext cx="21772" cy="1545771"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13868,17 +13868,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DC9FD7A2-B798-404D-9015-D35E0CA33FF1}" name="テーブル1485" displayName="テーブル1485" ref="B4:I18" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DC9FD7A2-B798-404D-9015-D35E0CA33FF1}" name="テーブル1485" displayName="テーブル1485" ref="B4:I18" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="B4:I18" xr:uid="{DC9FD7A2-B798-404D-9015-D35E0CA33FF1}"/>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{FB43F7CA-2656-4B2F-AD23-1DC30D44891B}" name="カテゴリ" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{7E5B5FF5-FEC7-4EED-B2BB-CE77524F4238}" name="期日" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{10975DC6-488B-46AB-A9FD-C78A9A7CEE1E}" name="済み" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{0E98AB6C-E10C-429C-95A4-BEBD7F989507}" name="担当1" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{45F27B9C-C74D-48FE-B09E-6758E4606AED}" name="担当2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{2009DB16-ACE5-43D5-B54E-D0D916F10EAE}" name="名前" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{FAF6052E-2374-44BA-BDED-53808C38F11A}" name="説明" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{92288FCA-A940-4207-82CF-5B447245B90C}" name="担当3" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FB43F7CA-2656-4B2F-AD23-1DC30D44891B}" name="カテゴリ" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{7E5B5FF5-FEC7-4EED-B2BB-CE77524F4238}" name="期日" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{10975DC6-488B-46AB-A9FD-C78A9A7CEE1E}" name="済み" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{0E98AB6C-E10C-429C-95A4-BEBD7F989507}" name="担当1" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{45F27B9C-C74D-48FE-B09E-6758E4606AED}" name="担当2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{2009DB16-ACE5-43D5-B54E-D0D916F10EAE}" name="名前" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{FAF6052E-2374-44BA-BDED-53808C38F11A}" name="説明" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{92288FCA-A940-4207-82CF-5B447245B90C}" name="担当3" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13888,30 +13888,30 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D6C27C35-1CD5-45BD-BDA3-47B5FF25F974}" name="テーブル148" displayName="テーブル148" ref="H4:O12" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="H4:O12" xr:uid="{D6C27C35-1CD5-45BD-BDA3-47B5FF25F974}"/>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{F5AF1B34-F1C2-41D3-A5A0-5A27C05993EB}" name="番号" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F5AF1B34-F1C2-41D3-A5A0-5A27C05993EB}" name="番号" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{1C26F88E-EF89-4BC7-8139-60690DD89166}" name="名前"/>
     <tableColumn id="4" xr3:uid="{7BFC2CEC-E71D-4386-AC3C-EDBB12358164}" name="説明"/>
-    <tableColumn id="1" xr3:uid="{3B5A33A5-DB01-48D0-8C29-ED8F605507DF}" name="担当1" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{F0BCB778-3810-442B-AF74-79719CC21B3F}" name="担当2" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{3A0F4C21-72E2-4E0B-A023-633DB3B865E5}" name="担当3" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{11A3A317-5E79-479D-B42F-4B7452CB545F}" name="期日" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E86087BD-206C-4D75-BE33-4A99E4932EB1}" name="済み" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{3B5A33A5-DB01-48D0-8C29-ED8F605507DF}" name="担当1" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{F0BCB778-3810-442B-AF74-79719CC21B3F}" name="担当2" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{3A0F4C21-72E2-4E0B-A023-633DB3B865E5}" name="担当3" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{11A3A317-5E79-479D-B42F-4B7452CB545F}" name="期日" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{E86087BD-206C-4D75-BE33-4A99E4932EB1}" name="済み" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{887D7105-7749-4D1B-96BE-723CFEA9627F}" name="テーブル14" displayName="テーブル14" ref="F5:L12" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{887D7105-7749-4D1B-96BE-723CFEA9627F}" name="テーブル14" displayName="テーブル14" ref="F5:L12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="F5:L12" xr:uid="{887D7105-7749-4D1B-96BE-723CFEA9627F}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{6E19A68F-0DB6-4714-9095-253C07C33765}" name="番号" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{A31F4D38-FB64-4B82-B8E4-16808F187EC6}" name="名前" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{2D9FBF77-56DC-4544-BC32-DAC843E0FEBD}" name="説明" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{C3C8063E-8A2F-459D-A3D9-FDB1EB946432}" name="担当" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{9816116B-861E-4BF6-BB52-DBB99D87D3ED}" name="担当2" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{B599F146-0E22-4CEA-B5D8-6EE378D1F457}" name="期日" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{C112FC52-C628-4E61-8ACE-6DAE4A3D1296}" name="済み" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{6E19A68F-0DB6-4714-9095-253C07C33765}" name="番号" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{A31F4D38-FB64-4B82-B8E4-16808F187EC6}" name="名前" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2D9FBF77-56DC-4544-BC32-DAC843E0FEBD}" name="説明" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C3C8063E-8A2F-459D-A3D9-FDB1EB946432}" name="担当" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{9816116B-861E-4BF6-BB52-DBB99D87D3ED}" name="担当2" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B599F146-0E22-4CEA-B5D8-6EE378D1F457}" name="期日" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C112FC52-C628-4E61-8ACE-6DAE4A3D1296}" name="済み" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14388,8 +14388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB1FB3E-2A6A-4139-AC1F-157944B8A2F2}">
   <dimension ref="B4:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -14430,7 +14430,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="25">
@@ -14452,7 +14452,7 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="25">
@@ -14486,174 +14486,174 @@
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="25">
         <v>44498</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="25">
         <v>44498</v>
       </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="25">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="25">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="25">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="25">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="25">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="D14" s="16"/>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="16"/>
@@ -14699,8 +14699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2DD6DC-F3B6-43B4-A2D0-FFC78CB50DC8}">
   <dimension ref="A2:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:O12"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -14824,7 +14824,7 @@
       <c r="J8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="31" t="s">
         <v>45</v>
       </c>
       <c r="L8" s="7"/>
@@ -14846,7 +14846,7 @@
       <c r="J9" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="31" t="s">
         <v>45</v>
       </c>
       <c r="L9" s="7"/>
@@ -14922,10 +14922,10 @@
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="37"/>
     </row>
     <row r="22" spans="1:9" ht="32.4" x14ac:dyDescent="0.55000000000000004">
       <c r="I22" s="15" t="s">

--- a/納豆仕様書10.26.xlsx
+++ b/納豆仕様書10.26.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\田中 湧輝\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF6DAE9-8E06-4E98-A1F6-8A1FA1C7E83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC790F6C-33F2-40F0-AE54-9A87E4C63401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{C4C6002F-9450-4BE2-A7A1-30430E39AEEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="4" xr2:uid="{C4C6002F-9450-4BE2-A7A1-30430E39AEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
     <sheet name="タスク一覧" sheetId="6" r:id="rId2"/>
-    <sheet name="バンジージャンプ" sheetId="5" r:id="rId3"/>
-    <sheet name="ゲームループ" sheetId="2" r:id="rId4"/>
-    <sheet name="混ぜ混ぜタイム" sheetId="4" r:id="rId5"/>
-    <sheet name="ツール&amp;トッピング選択" sheetId="3" r:id="rId6"/>
+    <sheet name="ゲームループ" sheetId="2" r:id="rId3"/>
+    <sheet name="バンジージャンプ" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId6"/>
+    <sheet name="混ぜ混ぜタイム" sheetId="4" r:id="rId7"/>
+    <sheet name="ツール&amp;トッピング選択" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -948,12 +950,141 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>糸を飛ばす処理</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面イメージ図</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUMは合計値</t>
+    <rPh sb="4" eb="7">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AVERAGEは平均</t>
+    <rPh sb="8" eb="10">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COUNTは範囲内の数値が入っているセル数を調べる</t>
+    <rPh sb="6" eb="9">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※COUNTAなど派生形もある</t>
+    <rPh sb="9" eb="12">
+      <t>ハセイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAXは範囲内の最大値を</t>
+    <rPh sb="4" eb="7">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MINは範囲内の最小値を調べる</t>
+    <rPh sb="4" eb="7">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸の発射について</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸が引っかかる金具</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カナグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛ぶ時の挙動</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -1081,8 +1212,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,6 +1274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,7 +1389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1358,11 +1504,53 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1839,6 +2027,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1851,6 +2044,1555 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>806545</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>388039</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100529</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC7FA4C-BFD9-4B22-9BD6-CE7C5577836E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="806545" y="984250"/>
+          <a:ext cx="2319932" cy="672029"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140886</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>144689</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>154629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2F8CB6-FB90-4931-98C3-8329F6E63E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1966511" y="1656279"/>
+          <a:ext cx="3803" cy="625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>216533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182615</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C9E7A5-15D1-4DBE-8AC3-8468F587BA4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="2343783"/>
+          <a:ext cx="3681465" cy="671432"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ツール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トッピング選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163705</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>167508</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>92554</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C72D7E-4507-451E-9786-8375ACD1F3A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1989330" y="3022954"/>
+          <a:ext cx="3803" cy="625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>677237</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>646654</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>216297</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA3822E-CA0A-40B3-8A1E-70EC13AADEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="677237" y="3671768"/>
+          <a:ext cx="2707855" cy="672029"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>混ぜ混ぜタイム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171311</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>254987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175114</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22741</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFB703B-072A-4FCB-BBD9-0421BACEC8C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1996936" y="4382487"/>
+          <a:ext cx="3803" cy="625004"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>684843</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>654260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146484</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形: 角を丸くする 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5C6235-2248-4EB3-A255-FB8CD378CF86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="684843" y="5030705"/>
+          <a:ext cx="2707855" cy="672029"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>バンジージャンプ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>101992</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>896938</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68309</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA959931-055F-41A8-8F57-E7DD0F8E1EE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2840430" y="6754813"/>
+          <a:ext cx="1707758" cy="12746"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>891310</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>70313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>896938</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBD916B-0134-4252-9BF3-14EF5A92B261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4542560" y="1340313"/>
+          <a:ext cx="5628" cy="5446250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>399640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>46864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>891311</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>46864</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6629AF-9F9D-4C4F-BA32-8A206E8D7143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3138078" y="1316864"/>
+          <a:ext cx="1404483" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>515816</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>234461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>293689</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA010EB-5773-461A-96AE-7B0EA43FF415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6888907" y="927188"/>
+          <a:ext cx="4330081" cy="6969903"/>
+          <a:chOff x="211016" y="973015"/>
+          <a:chExt cx="4349831" cy="7081017"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F551235A-EAA4-4FB4-8C30-53B194764A41}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="807720" y="973015"/>
+            <a:ext cx="2324100" cy="661768"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>タイトル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E455C3-041F-4823-8671-FAE763B411CC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="14" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1969770" y="1634783"/>
+            <a:ext cx="3810" cy="616048"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7421E454-BD30-4D27-952F-17DD527E6113}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="211016" y="3671668"/>
+            <a:ext cx="3688080" cy="661181"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ツール</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&amp;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>トッピング選択</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFABFE2-A430-464F-B2FC-4C2E6AA60D7B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2051246" y="4340469"/>
+            <a:ext cx="3810" cy="616048"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6E075E-877A-4DC2-8F0D-0EF825DF5B2B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="736796" y="4979377"/>
+            <a:ext cx="2712720" cy="661768"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>混ぜ混ぜタイム</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40CF5CBD-0CBB-42DC-AA1B-8FAEE26CA015}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2058866" y="5679245"/>
+            <a:ext cx="3810" cy="615461"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="直線コネクタ 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3038A0-6053-43F9-9C25-2906CB1EA3F2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2861150" y="8019434"/>
+            <a:ext cx="1683793" cy="18974"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="直線コネクタ 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB7C7DF-2073-42F7-AB97-11115CA6FEEF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4550449" y="1323642"/>
+            <a:ext cx="10398" cy="6730390"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D84B7A2-9C10-4847-92FB-C218E7E9998F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3143442" y="1300551"/>
+            <a:ext cx="1407006" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>480646</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>511126</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>215704</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6A4D23-CD5C-417A-9823-6707D7041247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6881446" y="2215661"/>
+          <a:ext cx="3688080" cy="661181"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>オープニング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480646</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>484456</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76785</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552C3588-7A7C-47BB-A2E3-A1304F5D1F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8710246" y="2965937"/>
+          <a:ext cx="3810" cy="616048"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>208085</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>20516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>73269</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DD9994-4F57-4D51-AE62-FE83627569F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1116623" y="6277708"/>
+          <a:ext cx="1682261" cy="655907"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リザルト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179656</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>225669</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D81A78-13D4-4FFD-B1C4-E36664053750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1992923" y="5597769"/>
+          <a:ext cx="3810" cy="606669"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>150813</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120230</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>37029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="四角形: 角を丸くする 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69437C8-9D5E-4A42-9049-CCA46850998D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7453313" y="6350000"/>
+          <a:ext cx="2707855" cy="672029"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>バンジージャンプ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586868</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>196811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>452052</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="四角形: 角を丸くする 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74DFF7B-F42E-4345-8FE8-18973153C961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7889368" y="7753311"/>
+          <a:ext cx="1690809" cy="670561"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リザルト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>554628</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558438</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E28235-877D-4EBD-84B4-0B1B3600678D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8769941" y="7051391"/>
+          <a:ext cx="3810" cy="621323"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2047,8 +3789,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="466724" y="1067343"/>
-          <a:ext cx="5286375" cy="3212138"/>
+          <a:off x="466724" y="1065144"/>
+          <a:ext cx="5295611" cy="3231490"/>
           <a:chOff x="2051958" y="3507374"/>
           <a:chExt cx="2404800" cy="1474836"/>
         </a:xfrm>
@@ -4049,8 +5791,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1844806" y="5802512"/>
-          <a:ext cx="463784" cy="812245"/>
+          <a:off x="1847885" y="5827912"/>
+          <a:ext cx="463784" cy="810046"/>
           <a:chOff x="9389456" y="3683061"/>
           <a:chExt cx="363544" cy="598471"/>
         </a:xfrm>
@@ -4188,8 +5930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="730245">
-          <a:off x="1851582" y="6448206"/>
-          <a:ext cx="468549" cy="835421"/>
+          <a:off x="1854661" y="6477125"/>
+          <a:ext cx="468549" cy="825744"/>
           <a:chOff x="9927058" y="3487080"/>
           <a:chExt cx="359431" cy="598471"/>
         </a:xfrm>
@@ -4327,8 +6069,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="367466" y="5015590"/>
-          <a:ext cx="5365487" cy="3522617"/>
+          <a:off x="367466" y="5037471"/>
+          <a:ext cx="5374723" cy="3527016"/>
           <a:chOff x="2197364" y="3858340"/>
           <a:chExt cx="3318083" cy="2076803"/>
         </a:xfrm>
@@ -5102,8 +6844,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="20454075">
-          <a:off x="1806966" y="5197528"/>
-          <a:ext cx="442363" cy="795213"/>
+          <a:off x="1808505" y="5219409"/>
+          <a:ext cx="443903" cy="800491"/>
           <a:chOff x="9137170" y="3875046"/>
           <a:chExt cx="353255" cy="599865"/>
         </a:xfrm>
@@ -5216,15 +6958,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>865074</xdr:colOff>
+      <xdr:colOff>811196</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>102751</xdr:rowOff>
+      <xdr:rowOff>118145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>81989</xdr:colOff>
+      <xdr:colOff>28111</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>19011</xdr:rowOff>
+      <xdr:rowOff>34405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5254,8 +6996,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="5428700" y="7312443"/>
-          <a:ext cx="1042366" cy="1055073"/>
+          <a:off x="5390893" y="7376387"/>
+          <a:ext cx="1048794" cy="1055412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5855,8 +7597,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="1949845">
-          <a:off x="1929734" y="7096646"/>
-          <a:ext cx="484831" cy="849576"/>
+          <a:off x="1932813" y="7114130"/>
+          <a:ext cx="484831" cy="854853"/>
           <a:chOff x="15157421" y="4298461"/>
           <a:chExt cx="809968" cy="1521758"/>
         </a:xfrm>
@@ -6531,8 +8273,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="436880" y="9392920"/>
-          <a:ext cx="5365487" cy="3522617"/>
+          <a:off x="436880" y="9424478"/>
+          <a:ext cx="5374723" cy="3545488"/>
           <a:chOff x="2197364" y="3858340"/>
           <a:chExt cx="3318083" cy="2076803"/>
         </a:xfrm>
@@ -7019,27 +8761,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>806545</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>153124</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>388039</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>100529</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>661138</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC7FA4C-BFD9-4B22-9BD6-CE7C5577836E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DF77DB-284F-41F2-A79D-C82AA3E458B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7047,139 +8789,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="806545" y="984250"/>
-          <a:ext cx="2319932" cy="672029"/>
+          <a:off x="1066443" y="1787892"/>
+          <a:ext cx="5074610" cy="2888194"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>タイトル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>140886</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>100529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>144689</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>154629</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2F8CB6-FB90-4931-98C3-8329F6E63E66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1966511" y="1656279"/>
-          <a:ext cx="3803" cy="625600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>216533</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>182615</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>30715</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C9E7A5-15D1-4DBE-8AC3-8468F587BA4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="2343783"/>
-          <a:ext cx="3681465" cy="671432"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -7199,34 +8819,105 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ツール</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>&amp;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>トッピング選択</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7234,79 +8925,1010 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>163705</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38454</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>167508</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>734496</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>92554</xdr:rowOff>
+      <xdr:rowOff>41976</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C72D7E-4507-451E-9786-8375ACD1F3A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA587845-0557-4D70-8F85-D79EA100D893}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1989330" y="3022954"/>
-          <a:ext cx="3803" cy="625600"/>
+          <a:off x="923280" y="1636868"/>
+          <a:ext cx="5285584" cy="3217740"/>
+          <a:chOff x="2051958" y="3507374"/>
+          <a:chExt cx="2404800" cy="1474836"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649B44B4-04AF-4E16-81E0-9C82C1A06541}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2103329" y="4370762"/>
+            <a:ext cx="497339" cy="527421"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="グループ化 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD33EC7-FD79-46B8-AC6E-C32695539D97}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks noChangeAspect="1"/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2051958" y="3507374"/>
+            <a:ext cx="2404800" cy="1474836"/>
+            <a:chOff x="2197364" y="3858340"/>
+            <a:chExt cx="3318083" cy="2076803"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="テキスト ボックス 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78EADC4B-13AC-44E9-8711-17A481EE9CD0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2276872" y="4052900"/>
+              <a:ext cx="184731" cy="200055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="フリーフォーム: 図形 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616BB9DB-005F-478D-881C-2CB4BAD055F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2197364" y="3858340"/>
+              <a:ext cx="3318083" cy="2076803"/>
+            </a:xfrm>
+            <a:custGeom>
+              <a:avLst/>
+              <a:gdLst>
+                <a:gd name="connsiteX0" fmla="*/ 109938 w 3985260"/>
+                <a:gd name="connsiteY0" fmla="*/ 102302 h 2415540"/>
+                <a:gd name="connsiteX1" fmla="*/ 109938 w 3985260"/>
+                <a:gd name="connsiteY1" fmla="*/ 2217420 h 2415540"/>
+                <a:gd name="connsiteX2" fmla="*/ 3891273 w 3985260"/>
+                <a:gd name="connsiteY2" fmla="*/ 2217420 h 2415540"/>
+                <a:gd name="connsiteX3" fmla="*/ 3891273 w 3985260"/>
+                <a:gd name="connsiteY3" fmla="*/ 102302 h 2415540"/>
+                <a:gd name="connsiteX4" fmla="*/ 124449 w 3985260"/>
+                <a:gd name="connsiteY4" fmla="*/ 0 h 2415540"/>
+                <a:gd name="connsiteX5" fmla="*/ 3860811 w 3985260"/>
+                <a:gd name="connsiteY5" fmla="*/ 0 h 2415540"/>
+                <a:gd name="connsiteX6" fmla="*/ 3985260 w 3985260"/>
+                <a:gd name="connsiteY6" fmla="*/ 124449 h 2415540"/>
+                <a:gd name="connsiteX7" fmla="*/ 3985260 w 3985260"/>
+                <a:gd name="connsiteY7" fmla="*/ 2291091 h 2415540"/>
+                <a:gd name="connsiteX8" fmla="*/ 3860811 w 3985260"/>
+                <a:gd name="connsiteY8" fmla="*/ 2415540 h 2415540"/>
+                <a:gd name="connsiteX9" fmla="*/ 124449 w 3985260"/>
+                <a:gd name="connsiteY9" fmla="*/ 2415540 h 2415540"/>
+                <a:gd name="connsiteX10" fmla="*/ 0 w 3985260"/>
+                <a:gd name="connsiteY10" fmla="*/ 2291091 h 2415540"/>
+                <a:gd name="connsiteX11" fmla="*/ 0 w 3985260"/>
+                <a:gd name="connsiteY11" fmla="*/ 124449 h 2415540"/>
+                <a:gd name="connsiteX12" fmla="*/ 124449 w 3985260"/>
+                <a:gd name="connsiteY12" fmla="*/ 0 h 2415540"/>
+              </a:gdLst>
+              <a:ahLst/>
+              <a:cxnLst>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX0" y="connsiteY0"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX1" y="connsiteY1"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX2" y="connsiteY2"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX3" y="connsiteY3"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX4" y="connsiteY4"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX5" y="connsiteY5"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX6" y="connsiteY6"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX7" y="connsiteY7"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX8" y="connsiteY8"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX9" y="connsiteY9"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX10" y="connsiteY10"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX11" y="connsiteY11"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX12" y="connsiteY12"/>
+                </a:cxn>
+              </a:cxnLst>
+              <a:rect l="l" t="t" r="r" b="b"/>
+              <a:pathLst>
+                <a:path w="3985260" h="2415540">
+                  <a:moveTo>
+                    <a:pt x="109938" y="102302"/>
+                  </a:moveTo>
+                  <a:lnTo>
+                    <a:pt x="109938" y="2217420"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="3891273" y="2217420"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="3891273" y="102302"/>
+                  </a:lnTo>
+                  <a:close/>
+                  <a:moveTo>
+                    <a:pt x="124449" y="0"/>
+                  </a:moveTo>
+                  <a:lnTo>
+                    <a:pt x="3860811" y="0"/>
+                  </a:lnTo>
+                  <a:cubicBezTo>
+                    <a:pt x="3929542" y="0"/>
+                    <a:pt x="3985260" y="55718"/>
+                    <a:pt x="3985260" y="124449"/>
+                  </a:cubicBezTo>
+                  <a:lnTo>
+                    <a:pt x="3985260" y="2291091"/>
+                  </a:lnTo>
+                  <a:cubicBezTo>
+                    <a:pt x="3985260" y="2359822"/>
+                    <a:pt x="3929542" y="2415540"/>
+                    <a:pt x="3860811" y="2415540"/>
+                  </a:cubicBezTo>
+                  <a:lnTo>
+                    <a:pt x="124449" y="2415540"/>
+                  </a:lnTo>
+                  <a:cubicBezTo>
+                    <a:pt x="55718" y="2415540"/>
+                    <a:pt x="0" y="2359822"/>
+                    <a:pt x="0" y="2291091"/>
+                  </a:cubicBezTo>
+                  <a:lnTo>
+                    <a:pt x="0" y="124449"/>
+                  </a:lnTo>
+                  <a:cubicBezTo>
+                    <a:pt x="0" y="55718"/>
+                    <a:pt x="55718" y="0"/>
+                    <a:pt x="124449" y="0"/>
+                  </a:cubicBezTo>
+                  <a:close/>
+                </a:path>
+              </a:pathLst>
+            </a:custGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="7" name="グループ化 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88970FFA-4EAA-4EB6-8491-1E2B15105FCA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks noChangeAspect="1"/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2111533" y="4008587"/>
+            <a:ext cx="231161" cy="357528"/>
+            <a:chOff x="2064966" y="4751920"/>
+            <a:chExt cx="441018" cy="682098"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="正方形/長方形 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86647945-92B8-46E1-B56A-0128AB6911E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2064966" y="4939123"/>
+              <a:ext cx="441018" cy="82578"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="正方形/長方形 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80313AE6-65BA-43DB-A29F-C9AE6201E4C2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2395777" y="5055741"/>
+              <a:ext cx="99323" cy="378277"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="図 14" descr="アイコン&#10;&#10;自動的に生成された説明">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7017DD94-CBC4-4D2C-87E4-3697A3991434}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId2">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="6641" b="92188" l="1563" r="99219">
+                          <a14:foregroundMark x1="46875" y1="7031" x2="46875" y2="7031"/>
+                          <a14:foregroundMark x1="95313" y1="37891" x2="95313" y2="37891"/>
+                          <a14:foregroundMark x1="6641" y1="29688" x2="6641" y2="29688"/>
+                          <a14:foregroundMark x1="1563" y1="24219" x2="1563" y2="24219"/>
+                          <a14:foregroundMark x1="51172" y1="92578" x2="51172" y2="92578"/>
+                          <a14:foregroundMark x1="99219" y1="23047" x2="99219" y2="23047"/>
+                          <a14:foregroundMark x1="27344" y1="16797" x2="27344" y2="16797"/>
+                          <a14:foregroundMark x1="69141" y1="24219" x2="69141" y2="24219"/>
+                          <a14:foregroundMark x1="30078" y1="28906" x2="47266" y2="16016"/>
+                          <a14:foregroundMark x1="47266" y1="16016" x2="73047" y2="20313"/>
+                          <a14:foregroundMark x1="73047" y1="20313" x2="53516" y2="28125"/>
+                          <a14:foregroundMark x1="53516" y1="28125" x2="44141" y2="26953"/>
+                        </a14:backgroundRemoval>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2240615" y="4751920"/>
+              <a:ext cx="181672" cy="181672"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>677237</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>115768</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>845671</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>194235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>646654</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>216297</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139176</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>111900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA3822E-CA0A-40B3-8A1E-70EC13AADEC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6970E6E-7EF7-499E-8541-22194C7A274C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7314,15 +9936,24 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="677237" y="3671768"/>
-          <a:ext cx="2707855" cy="672029"/>
+          <a:off x="2668495" y="1807882"/>
+          <a:ext cx="1116328" cy="321077"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7341,18 +9972,110 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>混ぜ混ぜタイム</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7360,95 +10083,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171311</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>254987</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>175114</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>22741</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFB703B-072A-4FCB-BBD9-0421BACEC8C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1996936" y="4382487"/>
-          <a:ext cx="3803" cy="625004"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>684843</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>45955</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>464671</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>654260</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>146484</xdr:rowOff>
+      <xdr:colOff>571102</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>280813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="四角形: 角を丸くする 8">
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5C6235-2248-4EB3-A255-FB8CD378CF86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE077BC-0E3E-4734-98AE-DAE3CB2427EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684843" y="5030705"/>
-          <a:ext cx="2707855" cy="672029"/>
+        <a:xfrm rot="2710577">
+          <a:off x="3198812" y="2191347"/>
+          <a:ext cx="106619" cy="106431"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7467,18 +10139,110 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>バンジージャンプ</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7487,22 +10251,469 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>101992</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
+      <xdr:colOff>464673</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>324977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>896938</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68309</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571104</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28184</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CFA990-27AA-460D-8C36-49B07BBF0E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2710577">
+          <a:off x="3198814" y="2342130"/>
+          <a:ext cx="106619" cy="106431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>469283</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>72347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>575714</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>178966</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AD475F-3188-4388-B727-B14894B2524F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2710577">
+          <a:off x="3203424" y="2492912"/>
+          <a:ext cx="106619" cy="106431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>410881</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>208829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>630042</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FBFE73-A2D3-4AEB-AC83-218ABD59E7AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:duotone>
+            <a:schemeClr val="accent4">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3145116" y="2629300"/>
+          <a:ext cx="219161" cy="267375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>694764</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>400410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>630717</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 2" descr="荷物を運ぶ配達員">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D08BA6-8454-43F8-BBBB-14DCED87C0BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1606176" y="2820881"/>
+          <a:ext cx="847365" cy="843126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>194235</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>27970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>520461</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線コネクタ 21">
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA959931-055F-41A8-8F57-E7DD0F8E1EE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68C904A-E228-4E73-A041-55B992898623}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7510,15 +10721,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2840430" y="6754813"/>
-          <a:ext cx="1707758" cy="12746"/>
+          <a:off x="2032711" y="2821970"/>
+          <a:ext cx="1245464" cy="371173"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -7543,23 +10756,471 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>891310</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>70313</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>306292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599106</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>252642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="フローチャート: 結合子 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CA24E9-C61B-4F87-9A90-7E62E6616E07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076823" y="2726763"/>
+          <a:ext cx="345107" cy="349761"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>378297</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>239059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>582157</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E87E2E-F780-4EF7-BFC5-E690A77E1FA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4944893" y="3886931"/>
+          <a:ext cx="1117179" cy="735933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>709706</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>328707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>896938</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
+      <xdr:colOff>143401</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>275056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="フローチャート: 結合子 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA4DB37-7366-44CD-97CA-AA0A1C8F2176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3443941" y="2345766"/>
+          <a:ext cx="345107" cy="349761"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>463889</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>98897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>816822</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45246</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="フローチャート: 結合子 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5213475F-3F48-412A-A08A-67C55709F502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5060079" y="2493754"/>
+          <a:ext cx="352933" cy="345492"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612484</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>234140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>697150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 6" descr="ジャンプする女子高生">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B6D19D-865F-49FA-8B8A-A67568356B6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4265761" y="2666055"/>
+          <a:ext cx="997985" cy="1016256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>27023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>834226</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>404372</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線コネクタ 22">
+        <xdr:cNvPr id="59" name="直線コネクタ 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBD916B-0134-4252-9BF3-14EF5A92B261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C94BFE-5979-4A50-8309-E5CE8275ED38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7567,15 +11228,18 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4542560" y="1340313"/>
-          <a:ext cx="5628" cy="5446250"/>
+          <a:off x="3247957" y="2864257"/>
+          <a:ext cx="1239546" cy="377349"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -7600,111 +11264,67 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>399640</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>46864</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>448224</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>237440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>891311</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>46864</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>756699</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>240987</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="63" name="グループ化 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6629AF-9F9D-4C4F-BA32-8A206E8D7143}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1D3BBC-1A6C-4847-9CF6-E764F9384A82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3138078" y="1316864"/>
-          <a:ext cx="1404483" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>515816</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>234461</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>293689</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="グループ化 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA010EB-5773-461A-96AE-7B0EA43FF415}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6888907" y="927188"/>
-          <a:ext cx="4330081" cy="6969903"/>
-          <a:chOff x="211016" y="973015"/>
-          <a:chExt cx="4349831" cy="7081017"/>
+          <a:off x="1360619" y="1039545"/>
+          <a:ext cx="3958054" cy="4014074"/>
+          <a:chOff x="4724353" y="654145"/>
+          <a:chExt cx="1620180" cy="1657255"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <xdr:cNvPr id="64" name="楕円 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F551235A-EAA4-4FB4-8C30-53B194764A41}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CA5EF1-5852-48D4-A2FC-3AA59231B1C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="807720" y="973015"/>
-            <a:ext cx="2324100" cy="661768"/>
+            <a:off x="4724353" y="691400"/>
+            <a:ext cx="1620180" cy="1620000"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="ellipse">
             <a:avLst/>
           </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:solidFill>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -7723,255 +11343,136 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>タイトル</a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <xdr:cNvPr id="65" name="直線コネクタ 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E455C3-041F-4823-8671-FAE763B411CC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02BB12FA-B761-40E2-B870-51DC042A3579}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="14" idx="2"/>
+            <a:stCxn id="64" idx="2"/>
+            <a:endCxn id="64" idx="6"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1969770" y="1634783"/>
-            <a:ext cx="3810" cy="616048"/>
+            <a:off x="4724353" y="1501400"/>
+            <a:ext cx="1620180" cy="0"/>
           </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
+          <a:prstGeom prst="line">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="38100">
+          <a:ln w="12700">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="FF0000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
             </a:solidFill>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7421E454-BD30-4D27-952F-17DD527E6113}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="211016" y="3671668"/>
-            <a:ext cx="3688080" cy="661181"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ツール</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>&amp;</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>トッピング選択</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFABFE2-A430-464F-B2FC-4C2E6AA60D7B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2051246" y="4340469"/>
-            <a:ext cx="3810" cy="616048"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6E075E-877A-4DC2-8F0D-0EF825DF5B2B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="736796" y="4979377"/>
-            <a:ext cx="2712720" cy="661768"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>混ぜ混ぜタイム</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40CF5CBD-0CBB-42DC-AA1B-8FAEE26CA015}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2058866" y="5679245"/>
-            <a:ext cx="3810" cy="615461"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:tailEnd type="triangle"/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -7991,112 +11492,31 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <xdr:cNvPr id="66" name="直線コネクタ 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3038A0-6053-43F9-9C25-2906CB1EA3F2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38DEE07-2D8C-46CB-8620-4B93A6A445D4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2861150" y="8019434"/>
-            <a:ext cx="1683793" cy="18974"/>
+            <a:off x="5485104" y="654145"/>
+            <a:ext cx="4193" cy="1620000"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="38100">
+          <a:ln w="12700">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="FF0000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
             </a:solidFill>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="24" name="直線コネクタ 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB7C7DF-2073-42F7-AB97-11115CA6FEEF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="4550449" y="1323642"/>
-            <a:ext cx="10398" cy="6730390"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D84B7A2-9C10-4847-92FB-C218E7E9998F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="3143442" y="1300551"/>
-            <a:ext cx="1407006" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:tailEnd type="triangle"/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -8117,458 +11537,10 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>480646</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>117230</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>511126</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>215704</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6A4D23-CD5C-417A-9823-6707D7041247}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6881446" y="2215661"/>
-          <a:ext cx="3688080" cy="661181"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>オープニング</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>480646</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>23445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>484456</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76785</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552C3588-7A7C-47BB-A2E3-A1304F5D1F91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8710246" y="2965937"/>
-          <a:ext cx="3810" cy="616048"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>208085</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>20516</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>119577</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DD9994-4F57-4D51-AE62-FE83627569F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1116623" y="6277708"/>
-          <a:ext cx="1682261" cy="655907"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>リザルト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>175846</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>179656</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>225669</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D81A78-13D4-4FFD-B1C4-E36664053750}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1992923" y="5597769"/>
-          <a:ext cx="3810" cy="606669"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>150813</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>120230</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>37029</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="四角形: 角を丸くする 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69437C8-9D5E-4A42-9049-CCA46850998D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7453313" y="6350000"/>
-          <a:ext cx="2707855" cy="672029"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>バンジージャンプ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>586868</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>196811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>452052</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>10122</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="四角形: 角を丸くする 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74DFF7B-F42E-4345-8FE8-18973153C961}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7889368" y="7753311"/>
-          <a:ext cx="1690809" cy="670561"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>リザルト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>554628</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66391</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>558438</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>116214</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E28235-877D-4EBD-84B4-0B1B3600678D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8769941" y="7051391"/>
-          <a:ext cx="3810" cy="621323"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13855,7 +16827,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB6EDA88-D479-49B7-A097-9FA4AE5FFC46}" name="テーブル1" displayName="テーブル1" ref="A2:D9" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB6EDA88-D479-49B7-A097-9FA4AE5FFC46}" name="テーブル1" displayName="テーブル1" ref="A2:D9" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A2:D9" xr:uid="{EB6EDA88-D479-49B7-A097-9FA4AE5FFC46}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CB359748-079C-47C7-B31E-A2410B240B45}" name="日付"/>
@@ -13868,50 +16840,61 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DC9FD7A2-B798-404D-9015-D35E0CA33FF1}" name="テーブル1485" displayName="テーブル1485" ref="B4:I18" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DC9FD7A2-B798-404D-9015-D35E0CA33FF1}" name="テーブル1485" displayName="テーブル1485" ref="B4:I18" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="B4:I18" xr:uid="{DC9FD7A2-B798-404D-9015-D35E0CA33FF1}"/>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{FB43F7CA-2656-4B2F-AD23-1DC30D44891B}" name="カテゴリ" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{7E5B5FF5-FEC7-4EED-B2BB-CE77524F4238}" name="期日" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{10975DC6-488B-46AB-A9FD-C78A9A7CEE1E}" name="済み" dataDxfId="21"/>
-    <tableColumn id="1" xr3:uid="{0E98AB6C-E10C-429C-95A4-BEBD7F989507}" name="担当1" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{45F27B9C-C74D-48FE-B09E-6758E4606AED}" name="担当2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{2009DB16-ACE5-43D5-B54E-D0D916F10EAE}" name="名前" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{FAF6052E-2374-44BA-BDED-53808C38F11A}" name="説明" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{92288FCA-A940-4207-82CF-5B447245B90C}" name="担当3" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{FB43F7CA-2656-4B2F-AD23-1DC30D44891B}" name="カテゴリ" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{7E5B5FF5-FEC7-4EED-B2BB-CE77524F4238}" name="期日" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{10975DC6-488B-46AB-A9FD-C78A9A7CEE1E}" name="済み" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{0E98AB6C-E10C-429C-95A4-BEBD7F989507}" name="担当1" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{45F27B9C-C74D-48FE-B09E-6758E4606AED}" name="担当2" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{2009DB16-ACE5-43D5-B54E-D0D916F10EAE}" name="名前" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{FAF6052E-2374-44BA-BDED-53808C38F11A}" name="説明" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{92288FCA-A940-4207-82CF-5B447245B90C}" name="担当3" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D6C27C35-1CD5-45BD-BDA3-47B5FF25F974}" name="テーブル148" displayName="テーブル148" ref="H4:O12" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D6C27C35-1CD5-45BD-BDA3-47B5FF25F974}" name="テーブル148" displayName="テーブル148" ref="H4:O12" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="H4:O12" xr:uid="{D6C27C35-1CD5-45BD-BDA3-47B5FF25F974}"/>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{F5AF1B34-F1C2-41D3-A5A0-5A27C05993EB}" name="番号" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{F5AF1B34-F1C2-41D3-A5A0-5A27C05993EB}" name="番号" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{1C26F88E-EF89-4BC7-8139-60690DD89166}" name="名前"/>
     <tableColumn id="4" xr3:uid="{7BFC2CEC-E71D-4386-AC3C-EDBB12358164}" name="説明"/>
-    <tableColumn id="1" xr3:uid="{3B5A33A5-DB01-48D0-8C29-ED8F605507DF}" name="担当1" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{F0BCB778-3810-442B-AF74-79719CC21B3F}" name="担当2" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{3A0F4C21-72E2-4E0B-A023-633DB3B865E5}" name="担当3" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{11A3A317-5E79-479D-B42F-4B7452CB545F}" name="期日" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{E86087BD-206C-4D75-BE33-4A99E4932EB1}" name="済み" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{3B5A33A5-DB01-48D0-8C29-ED8F605507DF}" name="担当1" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{F0BCB778-3810-442B-AF74-79719CC21B3F}" name="担当2" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{3A0F4C21-72E2-4E0B-A023-633DB3B865E5}" name="担当3" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{11A3A317-5E79-479D-B42F-4B7452CB545F}" name="期日" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{E86087BD-206C-4D75-BE33-4A99E4932EB1}" name="済み" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{887D7105-7749-4D1B-96BE-723CFEA9627F}" name="テーブル14" displayName="テーブル14" ref="F5:L12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A718B2C7-76E1-4957-91A4-BC8E1B84C788}" name="テーブル1483" displayName="テーブル1483" ref="I5:J13" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="I5:J13" xr:uid="{A718B2C7-76E1-4957-91A4-BC8E1B84C788}"/>
+  <tableColumns count="2">
+    <tableColumn id="2" xr3:uid="{0A75448F-4396-4715-BA24-9F91ADC7CDE5}" name="番号" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CF4CE4DC-FDC3-42B3-A328-A5515188ECEA}" name="名前"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{887D7105-7749-4D1B-96BE-723CFEA9627F}" name="テーブル14" displayName="テーブル14" ref="F5:L12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="F5:L12" xr:uid="{887D7105-7749-4D1B-96BE-723CFEA9627F}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{6E19A68F-0DB6-4714-9095-253C07C33765}" name="番号" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A31F4D38-FB64-4B82-B8E4-16808F187EC6}" name="名前" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{2D9FBF77-56DC-4544-BC32-DAC843E0FEBD}" name="説明" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{C3C8063E-8A2F-459D-A3D9-FDB1EB946432}" name="担当" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{9816116B-861E-4BF6-BB52-DBB99D87D3ED}" name="担当2" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B599F146-0E22-4CEA-B5D8-6EE378D1F457}" name="期日" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{C112FC52-C628-4E61-8ACE-6DAE4A3D1296}" name="済み" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{6E19A68F-0DB6-4714-9095-253C07C33765}" name="番号" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{A31F4D38-FB64-4B82-B8E4-16808F187EC6}" name="名前" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2D9FBF77-56DC-4544-BC32-DAC843E0FEBD}" name="説明" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C3C8063E-8A2F-459D-A3D9-FDB1EB946432}" name="担当" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{9816116B-861E-4BF6-BB52-DBB99D87D3ED}" name="担当2" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B599F146-0E22-4CEA-B5D8-6EE378D1F457}" name="期日" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C112FC52-C628-4E61-8ACE-6DAE4A3D1296}" name="済み" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14388,8 +17371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB1FB3E-2A6A-4139-AC1F-157944B8A2F2}">
   <dimension ref="B4:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -14696,11 +17679,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDBFF7B-12FE-4867-B1E5-E3FB0FF55B62}">
+  <dimension ref="A2:I2"/>
+  <sheetViews>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="1:9" ht="32.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2DD6DC-F3B6-43B4-A2D0-FFC78CB50DC8}">
   <dimension ref="A2:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A46" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -14951,37 +17959,217 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDBFF7B-12FE-4867-B1E5-E3FB0FF55B62}">
-  <dimension ref="A2:I2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976DAA52-8D89-4031-9D5B-1AADE3701E88}">
+  <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="10" max="10" width="18.61328125" customWidth="1"/>
+    <col min="11" max="11" width="87.765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="32.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+    </row>
+    <row r="4" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I6" s="16">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" s="16">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" s="16">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="16">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="16">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="16">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="16">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>23</v>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="17">
+        <v>7</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA25937-8EED-4256-9934-D7A5AD91D58B}">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="4" max="4" width="16.3828125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B2:B7)</f>
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(B2:B7)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>COUNT(B2:B7)</f>
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f>MAX(B2:B7)</f>
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f>MIN(B2:B7)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="41">
+        <f ca="1">NOW()</f>
+        <v>44497.697863194444</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C0D432-A160-48B9-A4B2-AA5DC1A6C072}">
   <dimension ref="A2:L12"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -15132,7 +18320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7105EBB3-4290-4553-A653-F63A36EDF483}">
   <dimension ref="A2:A5"/>
   <sheetViews>
